--- a/application/handlers/database/orders.xlsx
+++ b/application/handlers/database/orders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Дата</t>
   </si>
@@ -73,100 +73,40 @@
     <t>https://www.zara.com/ru/ru/%D1%82%D0%BE%D0%BF-%D0%BE%D0%B1%D1%8A%D0%B5%D0%BC%D0%BD%D1%8B%D0%B8-%D0%B2-%D0%BF%D0%BE%D0%BB%D0%BE%D1%81%D0%BA%D1%83-p00858470.html?v1=208507293&amp;v2=2113611#selectedColor=067&amp;origin=shopcart</t>
   </si>
   <si>
-    <t>2022-09-16 12:07:13</t>
-  </si>
-  <si>
-    <t>@billvoooo</t>
-  </si>
-  <si>
-    <t>ШИРОКИЕ БРЮКИ В РУБЧИК</t>
-  </si>
-  <si>
-    <t>ПЕСОЧНЫЙ</t>
-  </si>
-  <si>
-    <t>S</t>
+    <t>2022-09-16 12:54:42</t>
+  </si>
+  <si>
+    <t>@keesaev</t>
+  </si>
+  <si>
+    <t>КОЖАНЫЕ БОСОНОЖКИ С ДВУМЯ РЕМЕШКАМИ</t>
+  </si>
+  <si>
+    <t>ЗМЕИНЫЙ</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>https://www.zara.com/ru/ru/%D0%BA%D0%BE%D0%B6%D0%B0%D0%BD%D1%8B%D0%B5-%D0%B1%D0%BE%D1%81%D0%BE%D0%BD%D0%BE%D0%B6%D0%BA%D0%B8-%D1%81-%D0%B4%D0%B2%D1%83%D0%BC%D1%8F-%D1%80%D0%B5%D0%BC%D0%B5%D1%88%D0%BA%D0%B0%D0%BC%D0%B8-p12347010.html?v1=195643407</t>
+  </si>
+  <si>
+    <t>2022-09-17 19:35:33</t>
+  </si>
+  <si>
+    <t>@dimchxn</t>
+  </si>
+  <si>
+    <t>ТОЛСТОВКА С ПРИНТОМ «ДЕВУШКА»</t>
+  </si>
+  <si>
+    <t>БЕЖЕВЫЙ</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
   <si>
     <t>KZT</t>
-  </si>
-  <si>
-    <t>https://www.zara.com/kz/ru/share/-p03905452.html?utm_campaign=productShare&amp;utm_medium=mobile_sharing_iOS&amp;utm_source=red_social_movil&amp;v1=195913070</t>
-  </si>
-  <si>
-    <t>2022-09-16 12:09:05</t>
-  </si>
-  <si>
-    <t>ДЖИНСЫ STRAIGHT-FIT TRF</t>
-  </si>
-  <si>
-    <t>АНТРАЦИТОВО-СЕРЫЙ</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>https://www.zara.com/kz/ru/share/-p07215238.html?utm_campaign=productShare&amp;utm_medium=mobile_sharing_iOS&amp;utm_source=red_social_movil&amp;v1=213637072</t>
-  </si>
-  <si>
-    <t>2022-09-16 12:54:42</t>
-  </si>
-  <si>
-    <t>@keesaev</t>
-  </si>
-  <si>
-    <t>КОЖАНЫЕ БОСОНОЖКИ С ДВУМЯ РЕМЕШКАМИ</t>
-  </si>
-  <si>
-    <t>ЗМЕИНЫЙ</t>
-  </si>
-  <si>
-    <t>https://www.zara.com/ru/ru/%D0%BA%D0%BE%D0%B6%D0%B0%D0%BD%D1%8B%D0%B5-%D0%B1%D0%BE%D1%81%D0%BE%D0%BD%D0%BE%D0%B6%D0%BA%D0%B8-%D1%81-%D0%B4%D0%B2%D1%83%D0%BC%D1%8F-%D1%80%D0%B5%D0%BC%D0%B5%D1%88%D0%BA%D0%B0%D0%BC%D0%B8-p12347010.html?v1=195643407</t>
-  </si>
-  <si>
-    <t>2022-09-17 17:13:35</t>
-  </si>
-  <si>
-    <t>@dimchxn</t>
-  </si>
-  <si>
-    <t>ОБЪЕМНЫЙ ДВУБОРТНЫЙ ПИДЖАК</t>
-  </si>
-  <si>
-    <t>ЧЕРНЫЙ</t>
-  </si>
-  <si>
-    <t>XL</t>
-  </si>
-  <si>
-    <t>https://www.zara.com/ru/ru/%D0%BE%D0%B1%D1%8A%D0%B5%D0%BC%D0%BD%D1%8B%D0%B8-%D0%B4%D0%B2%D1%83%D0%B1%D0%BE%D1%80%D1%82%D0%BD%D1%8B%D0%B8-%D0%BF%D0%B8%D0%B4%D0%B6%D0%B0%D0%BA-p02753032.html?v1=206087228</t>
-  </si>
-  <si>
-    <t>2022-09-17 19:31:30</t>
-  </si>
-  <si>
-    <t>МИНИ-СУМКА С БЛЕСТКАМИ</t>
-  </si>
-  <si>
-    <t>ЗЕЛЕНЫЙ</t>
-  </si>
-  <si>
-    <t>Нет размера</t>
-  </si>
-  <si>
-    <t>https://www.zara.com/kz/ru/share/-p16280010.html?utm_campaign=productShare&amp;utm_medium=mobile_sharing_iOS&amp;utm_source=red_social_movil&amp;v1=188551101</t>
-  </si>
-  <si>
-    <t>2022-09-17 19:35:33</t>
-  </si>
-  <si>
-    <t>ТОЛСТОВКА С ПРИНТОМ «ДЕВУШКА»</t>
-  </si>
-  <si>
-    <t>БЕЖЕВЫЙ</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
   <si>
     <t>https://www.zara.com/kz/ru/share/-p01131888.html?utm_campaign=productShare&amp;utm_medium=mobile_sharing_iOS&amp;utm_source=red_social_movil&amp;v1=204986543</t>
@@ -514,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +538,7 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -610,30 +550,30 @@
         <v>23</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>17123.8</v>
+        <v>88118.2</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
       <c r="C4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -648,156 +588,16 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>25691.8</v>
+        <v>19571.8</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>88118.2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>6118.78</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>42827.8</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>19571.8</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -805,10 +605,6 @@
     <hyperlink ref="K2" r:id="rId1" location="selectedColor=067&amp;origin=shopcart"/>
     <hyperlink ref="K3" r:id="rId2"/>
     <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6"/>
-    <hyperlink ref="K8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/application/handlers/database/orders.xlsx
+++ b/application/handlers/database/orders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Дата</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>KZT</t>
+  </si>
+  <si>
+    <t>payed</t>
   </si>
   <si>
     <t>https://www.zara.com/kz/ru/share/-p01131888.html?utm_campaign=productShare&amp;utm_medium=mobile_sharing_iOS&amp;utm_source=red_social_movil&amp;v1=204986543</t>
@@ -594,10 +597,10 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/application/handlers/database/orders.xlsx
+++ b/application/handlers/database/orders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Дата</t>
   </si>
@@ -113,6 +113,27 @@
   </si>
   <si>
     <t>https://www.zara.com/kz/ru/share/-p01131888.html?utm_campaign=productShare&amp;utm_medium=mobile_sharing_iOS&amp;utm_source=red_social_movil&amp;v1=204986543</t>
+  </si>
+  <si>
+    <t>2022-09-19 10:01:59</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>2022-09-19 10:55:46</t>
+  </si>
+  <si>
+    <t>МИНИ-СУМКА С БЛЕСТКАМИ</t>
+  </si>
+  <si>
+    <t>ЗЕЛЕНЫЙ</t>
+  </si>
+  <si>
+    <t>Нет размера</t>
+  </si>
+  <si>
+    <t>https://www.zara.com/kz/ru/share/-p16280010.html?utm_campaign=productShare&amp;utm_medium=mobile_sharing_iOS&amp;utm_source=red_social_movil&amp;v1=188551101</t>
   </si>
 </sst>
 </file>
@@ -457,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,11 +624,83 @@
         <v>32</v>
       </c>
     </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>19571.8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>85655.5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" location="selectedColor=067&amp;origin=shopcart"/>
     <hyperlink ref="K3" r:id="rId2"/>
     <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="K6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/application/handlers/database/orders.xlsx
+++ b/application/handlers/database/orders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>Дата</t>
   </si>
@@ -134,6 +134,78 @@
   </si>
   <si>
     <t>https://www.zara.com/kz/ru/share/-p16280010.html?utm_campaign=productShare&amp;utm_medium=mobile_sharing_iOS&amp;utm_source=red_social_movil&amp;v1=188551101</t>
+  </si>
+  <si>
+    <t>2022-09-28 13:21:56</t>
+  </si>
+  <si>
+    <t>МНОГОФУНКЦИОНАЛЬНАЯ ПАЛЕТКА</t>
+  </si>
+  <si>
+    <t>4130/610</t>
+  </si>
+  <si>
+    <t>https://www.zara.com/KZ/ru/%D0%BC%D0%BD%D0%BE%D0%B3%D0%BE%D1%84%D1%83%D0%BD%D0%BA%D1%86%D0%B8%D0%BE%D0%BD%D0%B0%D0%BB%D1%8C%D0%BD%D0%B0%D1%8F-%D0%BF%D0%B0%D0%BB%D0%B5%D1%82%D0%BA%D0%B0-p24130610.html?v1=188165734&amp;v2=1881265&amp;utm_campaign=productShare&amp;utm_medium=mobile_sharing_Android&amp;utm_source=red_social_movil</t>
+  </si>
+  <si>
+    <t>2022-09-28 13:31:43</t>
+  </si>
+  <si>
+    <t>@hellenorrr</t>
+  </si>
+  <si>
+    <t>УКОРОЧЕННЫЙ ПИДЖАК ИЗ ТВИДА</t>
+  </si>
+  <si>
+    <t>ЛИЛОВЫЙ/БЕЛЫЙ</t>
+  </si>
+  <si>
+    <t>https://www.zara.com/kz/ru/укороченныи-пиджак-из-твида-p08990178.html?v1=205281093&amp;v2=2113388</t>
+  </si>
+  <si>
+    <t>2022-09-28 13:33:21</t>
+  </si>
+  <si>
+    <t>@moxempie</t>
+  </si>
+  <si>
+    <t>BABY/ МАСКАРАДНЫЙ КОСТЮМ «ТЫКВА»</t>
+  </si>
+  <si>
+    <t>ОРАНЖЕВЫЙ</t>
+  </si>
+  <si>
+    <t>3-4 ЛЕТ (ГОДА) (104 CM)</t>
+  </si>
+  <si>
+    <t>https://www.zara.com/ru/ru/baby--%D0%BC%D0%B0%D1%81%D0%BA%D0%B0%D1%80%D0%B0%D0%B4%D0%BD%D1%8B%D0%B8-%D0%BA%D0%BE%D1%81%D1%82%D1%8E%D0%BC--%D1%82%D1%8B%D0%BA%D0%B2%D0%B0--p05886599.html?v1=215999922&amp;v2=2118316&amp;utm_campaign=productShare&amp;utm_medium=web_mobile_sharing&amp;utm_source=red_social_web_mobile</t>
+  </si>
+  <si>
+    <t>2022-09-28 13:37:36</t>
+  </si>
+  <si>
+    <t>2022-09-28 13:38:33</t>
+  </si>
+  <si>
+    <t>КОЖАНЫЕ БОСОНОЖКИ НА КАБЛУКЕ</t>
+  </si>
+  <si>
+    <t>ЧЕРНЫЙ</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>https://www.zara.com/kz/ru/кожаные-босоножки-на-каблуке-p12327010.html?v1=177672221&amp;v2=2113388</t>
+  </si>
+  <si>
+    <t>2022-09-28 13:46:33</t>
+  </si>
+  <si>
+    <t>2022-09-28 18:44:12</t>
+  </si>
+  <si>
+    <t>https://www.zara.com/kz/ru/%D0%BC%D0%B8%D0%BD%D0%B8-%D1%81%D1%83%D0%BC%D0%BA%D0%B0-%D1%81-%D0%B1%D0%BB%D0%B5%D1%81%D1%82%D0%BA%D0%B0%D0%BC%D0%B8-p16280010.html?utm_campaign=productShare&amp;utm_medium=mobile_sharing_iOS&amp;utm_source=red_social_movil&amp;v1=188551101</t>
   </si>
 </sst>
 </file>
@@ -478,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -694,6 +766,251 @@
         <v>39</v>
       </c>
     </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>51383.5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>42827.8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>2569.18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>85655.5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>34259.8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2569.18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>42827.8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" location="selectedColor=067&amp;origin=shopcart"/>
@@ -701,6 +1018,13 @@
     <hyperlink ref="K4" r:id="rId3"/>
     <hyperlink ref="K5" r:id="rId4"/>
     <hyperlink ref="K6" r:id="rId5"/>
+    <hyperlink ref="K7" r:id="rId6"/>
+    <hyperlink ref="K8" r:id="rId7"/>
+    <hyperlink ref="K9" r:id="rId8"/>
+    <hyperlink ref="K10" r:id="rId9"/>
+    <hyperlink ref="K11" r:id="rId10"/>
+    <hyperlink ref="K12" r:id="rId11"/>
+    <hyperlink ref="K13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
